--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/非金融企业部门/资金运用.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/非金融企业部门/资金运用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,1506 +603,890 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279.229259605111</v>
+        <v>1946.68227130114</v>
       </c>
       <c r="C2" t="n">
-        <v>8.029999999999999</v>
+        <v>1043.6353675805</v>
       </c>
       <c r="D2" t="n">
-        <v>8.390000000000001</v>
+        <v>1278.3</v>
       </c>
       <c r="E2" t="n">
-        <v>445.710126644454</v>
+        <v>21689.0343279511</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-4425.78338206839</v>
+        <v>-75518.0527394723</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>3576.48496761485</v>
+        <v>15766.0208518871</v>
       </c>
       <c r="J2" t="n">
-        <v>25061.6969500526</v>
+        <v>84068.1009168353</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>23254.0674614975</v>
+        <v>122600.542407944</v>
       </c>
       <c r="N2" t="n">
-        <v>80.74250000000001</v>
+        <v>2402.0775257363</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>804.399999999998</v>
+        <v>7193.87275588709</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>1346.11542711397</v>
+        <v>10193.8787377778</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>8586.923587604249</v>
+        <v>48936.7413674455</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>31.103376560261</v>
+        <v>125.81</v>
       </c>
       <c r="AD2" t="n">
-        <v>2375.941822656</v>
+        <v>12800.0608453047</v>
       </c>
       <c r="AE2" t="n">
-        <v>1656.44806327934</v>
+        <v>12266.371009079</v>
       </c>
       <c r="AF2" t="n">
-        <v>6041.19929027085</v>
+        <v>32011.7945905086</v>
       </c>
       <c r="AG2" t="n">
-        <v>24058.4674614975</v>
+        <v>129794.415163831</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.390000000000001</v>
+        <v>1278.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>391.499413937604</v>
+        <v>3421.50586656851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02</v>
+        <v>1320.72</v>
       </c>
       <c r="D3" t="n">
-        <v>10.33</v>
+        <v>2005.3175</v>
       </c>
       <c r="E3" t="n">
-        <v>969.788218554825</v>
+        <v>23626.1861324267</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>-5943.44810853008</v>
+        <v>-87501.9937013765</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>3392.71756266227</v>
+        <v>23905.594098578</v>
       </c>
       <c r="J3" t="n">
-        <v>27027.54186703</v>
+        <v>98610.21424481241</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>25192.7907093398</v>
+        <v>137960.999308538</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14</v>
+        <v>3033.2061</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>2540.4854980695</v>
+        <v>9119.402424426509</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>2174.59539561886</v>
+        <v>13367.0466479005</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>10236.1237054832</v>
+        <v>57843.2056312496</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>35.7688830443002</v>
+        <v>144.67</v>
       </c>
       <c r="AD3" t="n">
-        <v>2830.98635508</v>
+        <v>16449.8240672828</v>
       </c>
       <c r="AE3" t="n">
-        <v>2601.86369260076</v>
+        <v>16933.222514469</v>
       </c>
       <c r="AF3" t="n">
-        <v>6312.86391774227</v>
+        <v>44709.3442658607</v>
       </c>
       <c r="AG3" t="n">
-        <v>27733.2762074093</v>
+        <v>147080.401732964</v>
       </c>
       <c r="AH3" t="n">
-        <v>10.33</v>
+        <v>2005.3175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.774897283224</v>
+        <v>4391.18709439721</v>
       </c>
       <c r="C4" t="n">
-        <v>18.49</v>
+        <v>1878.4440156324</v>
       </c>
       <c r="D4" t="n">
-        <v>20.51</v>
+        <v>2661.7675</v>
       </c>
       <c r="E4" t="n">
-        <v>1808.62389246863</v>
+        <v>20769.8145675342</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-7524.84336273298</v>
+        <v>-101281.236617206</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>3467.01693068745</v>
+        <v>30116.0232219492</v>
       </c>
       <c r="J4" t="n">
-        <v>29748.0400037715</v>
+        <v>119076.02307854</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>29167.4696317116</v>
+        <v>155414.105539633</v>
       </c>
       <c r="N4" t="n">
-        <v>104.8347</v>
+        <v>4360.126282584</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>1493.42273667874</v>
+        <v>7934.02342927053</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2187.30130389146</v>
+        <v>14751.5608281167</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>12531.3511009422</v>
+        <v>63208.7826200253</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>41.1342155009452</v>
+        <v>166.3705</v>
       </c>
       <c r="AD4" t="n">
-        <v>3450.29656207</v>
+        <v>15319.0164748727</v>
       </c>
       <c r="AE4" t="n">
-        <v>2743.21041667563</v>
+        <v>19309.1184225139</v>
       </c>
       <c r="AF4" t="n">
-        <v>7040.63819275745</v>
+        <v>51673.6099950383</v>
       </c>
       <c r="AG4" t="n">
-        <v>30660.8923683903</v>
+        <v>163348.128968903</v>
       </c>
       <c r="AH4" t="n">
-        <v>20.51</v>
+        <v>2661.7675</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>604.384257083517</v>
+        <v>5180.50768842927</v>
       </c>
       <c r="C5" t="n">
-        <v>52.3</v>
+        <v>1551.9709</v>
       </c>
       <c r="D5" t="n">
-        <v>37.28</v>
+        <v>3196.8007</v>
       </c>
       <c r="E5" t="n">
-        <v>4798.61553563752</v>
+        <v>30833.3290678216</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-12826.862761672</v>
+        <v>-98761.7430833455</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>4009.24802854426</v>
+        <v>22246.6143302008</v>
       </c>
       <c r="J5" t="n">
-        <v>33085.3285190234</v>
+        <v>147383.069647847</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>33970.0465956701</v>
+        <v>164613.932409064</v>
       </c>
       <c r="N5" t="n">
-        <v>115.7376</v>
+        <v>5070.1182</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>2397.38181818182</v>
+        <v>8029.37805528587</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>2607.52298372379</v>
+        <v>16537.0415097395</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>15048.0351818652</v>
+        <v>65701.31692870249</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>47.304347826087</v>
+        <v>191.326075</v>
       </c>
       <c r="AD5" t="n">
-        <v>2869.20030596</v>
+        <v>19995.6164491156</v>
       </c>
       <c r="AE5" t="n">
-        <v>3259.2115886334</v>
+        <v>21908.8752731687</v>
       </c>
       <c r="AF5" t="n">
-        <v>7046.48593450427</v>
+        <v>48864.3198793164</v>
       </c>
       <c r="AG5" t="n">
-        <v>36367.4284138519</v>
+        <v>172643.31046435</v>
       </c>
       <c r="AH5" t="n">
-        <v>37.28</v>
+        <v>3196.8007</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.407779917179</v>
+        <v>4232.80272398659</v>
       </c>
       <c r="C6" t="n">
-        <v>16.66</v>
+        <v>1347.2585</v>
       </c>
       <c r="D6" t="n">
-        <v>75.04000000000001</v>
+        <v>3815.9999</v>
       </c>
       <c r="E6" t="n">
-        <v>5011.23382456802</v>
+        <v>23924.2367337796</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>-14435.5493758179</v>
+        <v>-95175.1527659866</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>4754.32305443602</v>
+        <v>25099.3945923776</v>
       </c>
       <c r="J6" t="n">
-        <v>36368.8001608286</v>
+        <v>162388.213474132</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>40459.4120465507</v>
+        <v>182738.163731919</v>
       </c>
       <c r="N6" t="n">
-        <v>164.6876</v>
+        <v>5810.8399</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>3630.99689162534</v>
+        <v>9120.914846742469</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>3491.72989938193</v>
+        <v>17627.4090024001</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>18340.6476694957</v>
+        <v>69823.02886057171</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>54.4</v>
+        <v>253.0287341875</v>
       </c>
       <c r="AD6" t="n">
-        <v>3198.43391304</v>
+        <v>18131.2326431784</v>
       </c>
       <c r="AE6" t="n">
-        <v>4296.53767929911</v>
+        <v>22113.2404605742</v>
       </c>
       <c r="AF6" t="n">
-        <v>8134.10456747603</v>
+        <v>50388.725635556</v>
       </c>
       <c r="AG6" t="n">
-        <v>44090.408938176</v>
+        <v>191859.078578662</v>
       </c>
       <c r="AH6" t="n">
-        <v>75.04000000000001</v>
+        <v>3815.9999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>867.03656592009</v>
+        <v>4656.39789963132</v>
       </c>
       <c r="C7" t="n">
-        <v>28.1856</v>
+        <v>185.8894</v>
       </c>
       <c r="D7" t="n">
-        <v>140.314</v>
+        <v>3736.5737</v>
       </c>
       <c r="E7" t="n">
-        <v>4635.27993553267</v>
+        <v>21345.5764870249</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-13520.3851694741</v>
+        <v>-103871.179528403</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>5487.91855825112</v>
+        <v>25830.9679483507</v>
       </c>
       <c r="J7" t="n">
-        <v>41978.3127825076</v>
+        <v>172402.986519345</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>44266.1180809097</v>
+        <v>192556.024481749</v>
       </c>
       <c r="N7" t="n">
-        <v>292.3404</v>
+        <v>6697.6752</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>3248.50834059551</v>
+        <v>8161.82303809722</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>4247.11278462918</v>
+        <v>18741.0962044722</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>21310.9312181855</v>
+        <v>67736.720818332</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>62.56</v>
+        <v>290.983044315625</v>
       </c>
       <c r="AD7" t="n">
-        <v>5709.977440491</v>
+        <v>23789.4058388751</v>
       </c>
       <c r="AE7" t="n">
-        <v>5176.70935054927</v>
+        <v>23688.4771484191</v>
       </c>
       <c r="AF7" t="n">
-        <v>11518.4219987421</v>
+        <v>56503.9383872258</v>
       </c>
       <c r="AG7" t="n">
-        <v>47514.6264215052</v>
+        <v>200717.847519846</v>
       </c>
       <c r="AH7" t="n">
-        <v>140.314</v>
+        <v>3736.5737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>974.734216855823</v>
+        <v>4686.68788026319</v>
       </c>
       <c r="C8" t="n">
-        <v>394.5289</v>
-      </c>
-      <c r="D8" t="n">
-        <v>231.47</v>
-      </c>
+        <v>7.6023</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>6343.83579233235</v>
+        <v>29322.780560832</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-23923.1599112247</v>
+        <v>-130196.714282283</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>8916.381422038899</v>
+        <v>29289.273203546</v>
       </c>
       <c r="J8" t="n">
-        <v>48030.3659899833</v>
+        <v>185224.530130623</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>57518.091108219</v>
+        <v>219125.173713184</v>
       </c>
       <c r="N8" t="n">
-        <v>560.4934</v>
+        <v>6845.6089401061</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>4481.95548375948</v>
+        <v>9192.50207575381</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>5146.75959606964</v>
+        <v>20131.6206704702</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>24994.5394140971</v>
+        <v>74999.31487938479</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>71.944</v>
+        <v>334.630500962969</v>
       </c>
       <c r="AD8" t="n">
-        <v>6134.884545004</v>
+        <v>25860.3280553809</v>
       </c>
       <c r="AE8" t="n">
-        <v>6193.43781292546</v>
+        <v>25152.9390516964</v>
       </c>
       <c r="AF8" t="n">
-        <v>16006.2882670429</v>
+        <v>62002.8124990331</v>
       </c>
       <c r="AG8" t="n">
-        <v>62000.0465919784</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>231.47</v>
-      </c>
+        <v>228317.675788937</v>
+      </c>
+      <c r="AH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1150.17646497155</v>
+        <v>5043.43674786917</v>
       </c>
       <c r="C9" t="n">
-        <v>547.8339999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>403.1</v>
-      </c>
+        <v>4.337</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>9633.207394958639</v>
+        <v>41101.3132018404</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-29579.2903664209</v>
+        <v>-150997.849031361</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>10706.2265268316</v>
+        <v>30988.7538965194</v>
       </c>
       <c r="J9" t="n">
-        <v>57175.56618895</v>
+        <v>220487.224618961</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>69988.69076468451</v>
+        <v>246650.349820448</v>
       </c>
       <c r="N9" t="n">
-        <v>941.2166</v>
+        <v>7791.9947561837</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>6269.90794135291</v>
+        <v>12129.7623536979</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>6907.44688616777</v>
+        <v>24182.2868735769</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>30491.7615717974</v>
+        <v>82449.7434641077</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>95.14594</v>
+        <v>384.825076107414</v>
       </c>
       <c r="AD9" t="n">
-        <v>7346.53714884433</v>
+        <v>26026.3478519885</v>
       </c>
       <c r="AE9" t="n">
-        <v>8152.76929113932</v>
+        <v>29610.5486975535</v>
       </c>
       <c r="AF9" t="n">
-        <v>19541.814275676</v>
+        <v>64811.4335046916</v>
       </c>
       <c r="AG9" t="n">
-        <v>76258.5987060374</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>403.1</v>
-      </c>
+        <v>258780.112174146</v>
+      </c>
+      <c r="AH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1696.81331122334</v>
+        <v>4722.82637263928</v>
       </c>
       <c r="C10" t="n">
-        <v>717.01</v>
-      </c>
-      <c r="D10" t="n">
-        <v>537.4299999999999</v>
-      </c>
+        <v>2.6918</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>8758.277353124749</v>
+        <v>51817.7599048104</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-36329.9058046439</v>
+        <v>-93337.54174750119</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>14813.5451201478</v>
+        <v>28433.8218066833</v>
       </c>
       <c r="J10" t="n">
-        <v>67129.0297477405</v>
+        <v>250203.393567066</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>88272.2096221359</v>
+        <v>219484.128796206</v>
       </c>
       <c r="N10" t="n">
-        <v>1312.6201</v>
+        <v>7668.776876</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>7375.49307</v>
+        <v>7689.88655600957</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>8717.316515547591</v>
+        <v>27630.7775955116</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>35237.2777824225</v>
+        <v>87929.6842905708</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>95.14594</v>
+        <v>442.548837523526</v>
       </c>
       <c r="AD10" t="n">
-        <v>7510.32890611136</v>
+        <v>24802.0319439917</v>
       </c>
       <c r="AE10" t="n">
-        <v>10509.2757667709</v>
+        <v>32796.1528056744</v>
       </c>
       <c r="AF10" t="n">
-        <v>24353.5041262591</v>
+        <v>60907.322426675</v>
       </c>
       <c r="AG10" t="n">
-        <v>95647.70269213591</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>537.4299999999999</v>
-      </c>
+        <v>227174.015352216</v>
+      </c>
+      <c r="AH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1610.20678884335</v>
+        <v>4783.13740656459</v>
       </c>
       <c r="C11" t="n">
-        <v>747.546338</v>
-      </c>
-      <c r="D11" t="n">
-        <v>719.5599999999999</v>
-      </c>
+        <v>6.1475</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>14101.0796974498</v>
+        <v>59255.4246116683</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-57542.5253079862</v>
+        <v>-121566.191529557</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>13714.6577127628</v>
+        <v>32617.0107896884</v>
       </c>
       <c r="J11" t="n">
-        <v>73831.89383154031</v>
+        <v>266647.267228088</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>105104.649288976</v>
+        <v>259055.615702199</v>
       </c>
       <c r="N11" t="n">
-        <v>1707.210314</v>
+        <v>8481.6713</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>5605.61326380526</v>
+        <v>4811.62310682313</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>8353.891529263919</v>
+        <v>28428.0543509801</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>38824.2852400393</v>
+        <v>88545.5343205251</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>109.417831</v>
+        <v>508.931163152055</v>
       </c>
       <c r="AD11" t="n">
-        <v>10114.7232026716</v>
+        <v>26165.227337103</v>
       </c>
       <c r="AE11" t="n">
-        <v>10073.5161491073</v>
+        <v>33720.1229206967</v>
       </c>
       <c r="AF11" t="n">
-        <v>26284.1375674344</v>
+        <v>67270.05692679129</v>
       </c>
       <c r="AG11" t="n">
-        <v>110710.262552782</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>719.5599999999999</v>
-      </c>
+        <v>263867.238809022</v>
+      </c>
+      <c r="AH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1946.68227130114</v>
+        <v>5403.70428121735</v>
       </c>
       <c r="C12" t="n">
-        <v>1043.6353675805</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1278.3</v>
-      </c>
+        <v>8.6249</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>21689.0343279511</v>
+        <v>68875.9215754115</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>-75518.0527394723</v>
+        <v>-114456.441023952</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>15766.0208518871</v>
+        <v>35409.3683916748</v>
       </c>
       <c r="J12" t="n">
-        <v>84068.1009168353</v>
+        <v>277774.793170475</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>122600.542407944</v>
+        <v>248323.866264904</v>
       </c>
       <c r="N12" t="n">
-        <v>2402.0775257363</v>
+        <v>9837.9427</v>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>7193.87275588709</v>
+        <v>7024.85333301525</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>10193.8787377778</v>
+        <v>27352.3240438621</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>48936.7413674455</v>
+        <v>79382.30412086409</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>125.81</v>
+        <v>585.270837624863</v>
       </c>
       <c r="AD12" t="n">
-        <v>12800.0608453047</v>
+        <v>29530.9730440663</v>
       </c>
       <c r="AE12" t="n">
-        <v>12266.371009079</v>
+        <v>33341.2991627043</v>
       </c>
       <c r="AF12" t="n">
-        <v>32011.7945905086</v>
+        <v>74786.9090357411</v>
       </c>
       <c r="AG12" t="n">
-        <v>129794.415163831</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1278.3</v>
-      </c>
+        <v>255348.719597919</v>
+      </c>
+      <c r="AH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3421.50586656851</v>
+        <v>5994.64554209058</v>
       </c>
       <c r="C13" t="n">
-        <v>1320.72</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2005.3175</v>
-      </c>
+        <v>8.279299999999999</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>23626.1861324267</v>
+        <v>71848.3277733953</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>-87501.9937013765</v>
+        <v>-113970.868041781</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>23905.594098578</v>
+        <v>39146.4405169625</v>
       </c>
       <c r="J13" t="n">
-        <v>98610.21424481241</v>
+        <v>314511.638644199</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>137960.999308538</v>
+        <v>285387.340951124</v>
       </c>
       <c r="N13" t="n">
-        <v>3033.2061</v>
+        <v>10494.648</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>9119.402424426509</v>
+        <v>11333.9420765512</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>13367.0466479005</v>
+        <v>32725.0174480662</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>57843.2056312496</v>
+        <v>89397.60886582349</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
-        <v>144.67</v>
+        <v>673.061463268592</v>
       </c>
       <c r="AD13" t="n">
-        <v>16449.8240672828</v>
+        <v>34008.8284920507</v>
       </c>
       <c r="AE13" t="n">
-        <v>16933.222514469</v>
+        <v>39392.7244534254</v>
       </c>
       <c r="AF13" t="n">
-        <v>44709.3442658607</v>
+        <v>83658.1963090132</v>
       </c>
       <c r="AG13" t="n">
-        <v>147080.401732964</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>2005.3175</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4391.18709439721</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1878.4440156324</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2661.7675</v>
-      </c>
-      <c r="E14" t="n">
-        <v>20769.8145675342</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>-101281.236617206</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>30116.0232219492</v>
-      </c>
-      <c r="J14" t="n">
-        <v>119076.02307854</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>155414.105539633</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4360.126282584</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>7934.02342927053</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>14751.5608281167</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>63208.7826200253</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="n">
-        <v>166.3705</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>15319.0164748727</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19309.1184225139</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51673.6099950383</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>163348.128968903</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>2661.7675</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5180.50768842927</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1551.9709</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3196.8007</v>
-      </c>
-      <c r="E15" t="n">
-        <v>30833.3290678216</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>-98761.7430833455</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>22246.6143302008</v>
-      </c>
-      <c r="J15" t="n">
-        <v>147383.069647847</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>164613.932409064</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5070.1182</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>8029.37805528587</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>16537.0415097395</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>65701.31692870249</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="n">
-        <v>191.326075</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>19995.6164491156</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21908.8752731687</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>48864.3198793164</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>172643.31046435</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>3196.8007</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4232.80272398659</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1347.2585</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3815.9999</v>
-      </c>
-      <c r="E16" t="n">
-        <v>23924.2367337796</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>-95175.1527659866</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>25099.3945923776</v>
-      </c>
-      <c r="J16" t="n">
-        <v>162388.213474132</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>182738.163731919</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5810.8399</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>9120.914846742469</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>17627.4090024001</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>69823.02886057171</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="n">
-        <v>253.0287341875</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>18131.2326431784</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>22113.2404605742</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>50388.725635556</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>191859.078578662</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>3815.9999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4656.39789963132</v>
-      </c>
-      <c r="C17" t="n">
-        <v>185.8894</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3736.5737</v>
-      </c>
-      <c r="E17" t="n">
-        <v>21345.5764870249</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>-103871.179528403</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>25830.9679483507</v>
-      </c>
-      <c r="J17" t="n">
-        <v>172402.986519345</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>192556.024481749</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6697.6752</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>8161.82303809722</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>18741.0962044722</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>67736.720818332</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="n">
-        <v>290.983044315625</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>23789.4058388751</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>23688.4771484191</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>56503.9383872258</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>200717.847519846</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>3736.5737</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4686.68788026319</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.6023</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>29322.780560832</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>-130196.714282283</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>29289.273203546</v>
-      </c>
-      <c r="J18" t="n">
-        <v>185224.530130623</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>219125.173713184</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6845.6089401061</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>9192.50207575381</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>20131.6206704702</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>74999.31487938479</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="n">
-        <v>334.630500962969</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>25860.3280553809</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>25152.9390516964</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>62002.8124990331</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>228317.675788937</v>
-      </c>
-      <c r="AH18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5043.43674786917</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.337</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>41101.3132018404</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>-150997.849031361</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>30988.7538965194</v>
-      </c>
-      <c r="J19" t="n">
-        <v>220487.224618961</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>246650.349820448</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7791.9947561837</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>12129.7623536979</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>24182.2868735769</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>82449.7434641077</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="n">
-        <v>384.825076107414</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>26026.3478519885</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>29610.5486975535</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>64811.4335046916</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>258780.112174146</v>
-      </c>
-      <c r="AH19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4722.82637263928</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.6918</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>51817.7599048104</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>-93337.54174750119</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>28433.8218066833</v>
-      </c>
-      <c r="J20" t="n">
-        <v>250203.393567066</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>219484.128796206</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7668.776876</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>7689.88655600957</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>27630.7775955116</v>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>87929.6842905708</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="n">
-        <v>442.548837523526</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>24802.0319439917</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>32796.1528056744</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>60907.322426675</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>227174.015352216</v>
-      </c>
-      <c r="AH20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4783.13740656459</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.1475</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>59255.4246116683</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>-121566.191529557</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>32617.0107896884</v>
-      </c>
-      <c r="J21" t="n">
-        <v>266647.267228088</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>259055.615702199</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8481.6713</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>4811.62310682313</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
-        <v>28428.0543509801</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>88545.5343205251</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="n">
-        <v>508.931163152055</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>26165.227337103</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>33720.1229206967</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>67270.05692679129</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>263867.238809022</v>
-      </c>
-      <c r="AH21" t="inlineStr"/>
+        <v>296721.283027675</v>
+      </c>
+      <c r="AH13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
